--- a/rawdata/excel/100 200x200_dik^dikpq^dikbq^aspq^asbq_sd2.xlsx
+++ b/rawdata/excel/100 200x200_dik^dikpq^dikbq^aspq^asbq_sd2.xlsx
@@ -1,29 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\RASPBERRYPI\altairBackup\rawdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/altair823/Desktop/SPA_compare/rawdata/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F04C745-7EB1-4762-BCF9-04A821F6CF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE36CCC-9EE0-084D-A539-6DBE8F87DCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>DIK</t>
   </si>
@@ -39,12 +47,16 @@
   <si>
     <t>ASBQ</t>
   </si>
+  <si>
+    <t>is SPD same?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +92,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4850,15 +4865,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>28015</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>4764</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5311,1737 +5326,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="F1" t="str">
-            <v>DIK</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>DIKPQ</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>DIKBQ</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>ASPQ</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>ASBQ</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="F2">
-            <v>0.24531500000000001</v>
-          </cell>
-          <cell r="G2">
-            <v>5.744E-3</v>
-          </cell>
-          <cell r="H2">
-            <v>3.9529999999999999E-3</v>
-          </cell>
-          <cell r="I2">
-            <v>2.709E-3</v>
-          </cell>
-          <cell r="J2">
-            <v>1.0200000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>0.244672</v>
-          </cell>
-          <cell r="G3">
-            <v>5.6299999999999996E-3</v>
-          </cell>
-          <cell r="H3">
-            <v>3.9459999999999999E-3</v>
-          </cell>
-          <cell r="I3">
-            <v>3.4840000000000001E-3</v>
-          </cell>
-          <cell r="J3">
-            <v>1.4220000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>0.24280299999999999</v>
-          </cell>
-          <cell r="G4">
-            <v>5.5849999999999997E-3</v>
-          </cell>
-          <cell r="H4">
-            <v>3.898E-3</v>
-          </cell>
-          <cell r="I4">
-            <v>7.607E-3</v>
-          </cell>
-          <cell r="J4">
-            <v>2.6340000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>0.24424799999999999</v>
-          </cell>
-          <cell r="G5">
-            <v>5.7010000000000003E-3</v>
-          </cell>
-          <cell r="H5">
-            <v>3.8739999999999998E-3</v>
-          </cell>
-          <cell r="I5">
-            <v>5.7670000000000004E-3</v>
-          </cell>
-          <cell r="J5">
-            <v>1.7730000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>0.244477</v>
-          </cell>
-          <cell r="G6">
-            <v>5.6429999999999996E-3</v>
-          </cell>
-          <cell r="H6">
-            <v>3.9439999999999996E-3</v>
-          </cell>
-          <cell r="I6">
-            <v>6.6109999999999997E-3</v>
-          </cell>
-          <cell r="J6">
-            <v>2.4989999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>0.24527299999999999</v>
-          </cell>
-          <cell r="G7">
-            <v>5.7270000000000003E-3</v>
-          </cell>
-          <cell r="H7">
-            <v>3.8639999999999998E-3</v>
-          </cell>
-          <cell r="I7">
-            <v>5.7109999999999999E-3</v>
-          </cell>
-          <cell r="J7">
-            <v>1.755E-3</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>0.244225</v>
-          </cell>
-          <cell r="G8">
-            <v>5.6579999999999998E-3</v>
-          </cell>
-          <cell r="H8">
-            <v>3.8739999999999998E-3</v>
-          </cell>
-          <cell r="I8">
-            <v>3.7650000000000001E-3</v>
-          </cell>
-          <cell r="J8">
-            <v>1.3439999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>0.24354500000000001</v>
-          </cell>
-          <cell r="G9">
-            <v>5.6360000000000004E-3</v>
-          </cell>
-          <cell r="H9">
-            <v>3.9300000000000003E-3</v>
-          </cell>
-          <cell r="I9">
-            <v>5.8820000000000001E-3</v>
-          </cell>
-          <cell r="J9">
-            <v>2.1059999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>0.236488</v>
-          </cell>
-          <cell r="G10">
-            <v>5.5409999999999999E-3</v>
-          </cell>
-          <cell r="H10">
-            <v>3.869E-3</v>
-          </cell>
-          <cell r="I10">
-            <v>4.2750000000000002E-3</v>
-          </cell>
-          <cell r="J10">
-            <v>1.4580000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>0.24394299999999999</v>
-          </cell>
-          <cell r="G11">
-            <v>5.6299999999999996E-3</v>
-          </cell>
-          <cell r="H11">
-            <v>3.9610000000000001E-3</v>
-          </cell>
-          <cell r="I11">
-            <v>6.5770000000000004E-3</v>
-          </cell>
-          <cell r="J11">
-            <v>2.3180000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>0.245034</v>
-          </cell>
-          <cell r="G12">
-            <v>5.7070000000000003E-3</v>
-          </cell>
-          <cell r="H12">
-            <v>3.826E-3</v>
-          </cell>
-          <cell r="I12">
-            <v>1.5089999999999999E-3</v>
-          </cell>
-          <cell r="J12">
-            <v>8.5300000000000003E-4</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>0.24495600000000001</v>
-          </cell>
-          <cell r="G13">
-            <v>5.653E-3</v>
-          </cell>
-          <cell r="H13">
-            <v>3.9480000000000001E-3</v>
-          </cell>
-          <cell r="I13">
-            <v>7.012E-3</v>
-          </cell>
-          <cell r="J13">
-            <v>2.483E-3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>0.24326300000000001</v>
-          </cell>
-          <cell r="G14">
-            <v>5.5890000000000002E-3</v>
-          </cell>
-          <cell r="H14">
-            <v>3.947E-3</v>
-          </cell>
-          <cell r="I14">
-            <v>4.2430000000000002E-3</v>
-          </cell>
-          <cell r="J14">
-            <v>1.542E-3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>0.24310499999999999</v>
-          </cell>
-          <cell r="G15">
-            <v>5.6629999999999996E-3</v>
-          </cell>
-          <cell r="H15">
-            <v>3.9119999999999997E-3</v>
-          </cell>
-          <cell r="I15">
-            <v>1.8240000000000001E-3</v>
-          </cell>
-          <cell r="J15">
-            <v>7.9600000000000005E-4</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>0.24531500000000001</v>
-          </cell>
-          <cell r="G16">
-            <v>5.6810000000000003E-3</v>
-          </cell>
-          <cell r="H16">
-            <v>3.8960000000000002E-3</v>
-          </cell>
-          <cell r="I16">
-            <v>4.2560000000000002E-3</v>
-          </cell>
-          <cell r="J16">
-            <v>1.358E-3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>0.24445</v>
-          </cell>
-          <cell r="G17">
-            <v>5.666E-3</v>
-          </cell>
-          <cell r="H17">
-            <v>3.8930000000000002E-3</v>
-          </cell>
-          <cell r="I17">
-            <v>4.1079999999999997E-3</v>
-          </cell>
-          <cell r="J17">
-            <v>1.573E-3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>0.24053099999999999</v>
-          </cell>
-          <cell r="G18">
-            <v>6.2550000000000001E-3</v>
-          </cell>
-          <cell r="H18">
-            <v>4.8539999999999998E-3</v>
-          </cell>
-          <cell r="I18">
-            <v>4.7650000000000001E-3</v>
-          </cell>
-          <cell r="J18">
-            <v>1.511E-3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>0.24462400000000001</v>
-          </cell>
-          <cell r="G19">
-            <v>5.6810000000000003E-3</v>
-          </cell>
-          <cell r="H19">
-            <v>3.908E-3</v>
-          </cell>
-          <cell r="I19">
-            <v>3.7169999999999998E-3</v>
-          </cell>
-          <cell r="J19">
-            <v>1.3960000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>0.25633099999999998</v>
-          </cell>
-          <cell r="G20">
-            <v>5.8900000000000003E-3</v>
-          </cell>
-          <cell r="H20">
-            <v>3.8999999999999998E-3</v>
-          </cell>
-          <cell r="I20">
-            <v>5.7910000000000001E-3</v>
-          </cell>
-          <cell r="J20">
-            <v>1.8580000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>0.244781</v>
-          </cell>
-          <cell r="G21">
-            <v>5.6620000000000004E-3</v>
-          </cell>
-          <cell r="H21">
-            <v>3.934E-3</v>
-          </cell>
-          <cell r="I21">
-            <v>4.1780000000000003E-3</v>
-          </cell>
-          <cell r="J21">
-            <v>1.5089999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>0.24319199999999999</v>
-          </cell>
-          <cell r="G22">
-            <v>5.6610000000000002E-3</v>
-          </cell>
-          <cell r="H22">
-            <v>3.833E-3</v>
-          </cell>
-          <cell r="I22">
-            <v>3.5690000000000001E-3</v>
-          </cell>
-          <cell r="J22">
-            <v>1.2149999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>0.243343</v>
-          </cell>
-          <cell r="G23">
-            <v>5.6880000000000003E-3</v>
-          </cell>
-          <cell r="H23">
-            <v>3.8379999999999998E-3</v>
-          </cell>
-          <cell r="I23">
-            <v>1.1329999999999999E-3</v>
-          </cell>
-          <cell r="J23">
-            <v>4.1800000000000002E-4</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>0.24432699999999999</v>
-          </cell>
-          <cell r="G24">
-            <v>5.7089999999999997E-3</v>
-          </cell>
-          <cell r="H24">
-            <v>3.921E-3</v>
-          </cell>
-          <cell r="I24">
-            <v>7.6480000000000003E-3</v>
-          </cell>
-          <cell r="J24">
-            <v>2.5509999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>0.241895</v>
-          </cell>
-          <cell r="G25">
-            <v>5.6610000000000002E-3</v>
-          </cell>
-          <cell r="H25">
-            <v>3.839E-3</v>
-          </cell>
-          <cell r="I25">
-            <v>2.8930000000000002E-3</v>
-          </cell>
-          <cell r="J25">
-            <v>1.1249999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>0.24529599999999999</v>
-          </cell>
-          <cell r="G26">
-            <v>5.8100000000000001E-3</v>
-          </cell>
-          <cell r="H26">
-            <v>3.875E-3</v>
-          </cell>
-          <cell r="I26">
-            <v>9.6500000000000004E-4</v>
-          </cell>
-          <cell r="J26">
-            <v>5.0900000000000001E-4</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>0.24435200000000001</v>
-          </cell>
-          <cell r="G27">
-            <v>5.6509999999999998E-3</v>
-          </cell>
-          <cell r="H27">
-            <v>3.9379999999999997E-3</v>
-          </cell>
-          <cell r="I27">
-            <v>5.1060000000000003E-3</v>
-          </cell>
-          <cell r="J27">
-            <v>1.722E-3</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>0.24571299999999999</v>
-          </cell>
-          <cell r="G28">
-            <v>5.7499999999999999E-3</v>
-          </cell>
-          <cell r="H28">
-            <v>3.8830000000000002E-3</v>
-          </cell>
-          <cell r="I28">
-            <v>4.3319999999999999E-3</v>
-          </cell>
-          <cell r="J28">
-            <v>1.5499999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>0.241838</v>
-          </cell>
-          <cell r="G29">
-            <v>5.5979999999999997E-3</v>
-          </cell>
-          <cell r="H29">
-            <v>3.9950000000000003E-3</v>
-          </cell>
-          <cell r="I29">
-            <v>7.2059999999999997E-3</v>
-          </cell>
-          <cell r="J29">
-            <v>2.6819999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30">
-            <v>0.24554000000000001</v>
-          </cell>
-          <cell r="G30">
-            <v>5.6690000000000004E-3</v>
-          </cell>
-          <cell r="H30">
-            <v>3.8930000000000002E-3</v>
-          </cell>
-          <cell r="I30">
-            <v>2.0240000000000002E-3</v>
-          </cell>
-          <cell r="J30">
-            <v>8.8999999999999995E-4</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>0.24304400000000001</v>
-          </cell>
-          <cell r="G31">
-            <v>5.6020000000000002E-3</v>
-          </cell>
-          <cell r="H31">
-            <v>3.9100000000000003E-3</v>
-          </cell>
-          <cell r="I31">
-            <v>6.7999999999999996E-3</v>
-          </cell>
-          <cell r="J31">
-            <v>2.2590000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32">
-            <v>0.23458699999999999</v>
-          </cell>
-          <cell r="G32">
-            <v>5.4419999999999998E-3</v>
-          </cell>
-          <cell r="H32">
-            <v>3.9300000000000003E-3</v>
-          </cell>
-          <cell r="I32">
-            <v>5.7730000000000004E-3</v>
-          </cell>
-          <cell r="J32">
-            <v>2.2529999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33">
-            <v>0.24413199999999999</v>
-          </cell>
-          <cell r="G33">
-            <v>5.6959999999999997E-3</v>
-          </cell>
-          <cell r="H33">
-            <v>3.9139999999999999E-3</v>
-          </cell>
-          <cell r="I33">
-            <v>7.4830000000000001E-3</v>
-          </cell>
-          <cell r="J33">
-            <v>2.3739999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="F34">
-            <v>0.24230699999999999</v>
-          </cell>
-          <cell r="G34">
-            <v>5.6100000000000004E-3</v>
-          </cell>
-          <cell r="H34">
-            <v>3.9659999999999999E-3</v>
-          </cell>
-          <cell r="I34">
-            <v>7.0429999999999998E-3</v>
-          </cell>
-          <cell r="J34">
-            <v>2.4480000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="F35">
-            <v>0.245196</v>
-          </cell>
-          <cell r="G35">
-            <v>5.7260000000000002E-3</v>
-          </cell>
-          <cell r="H35">
-            <v>3.8340000000000002E-3</v>
-          </cell>
-          <cell r="I35">
-            <v>5.4349999999999997E-3</v>
-          </cell>
-          <cell r="J35">
-            <v>1.9499999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="F36">
-            <v>0.24495800000000001</v>
-          </cell>
-          <cell r="G36">
-            <v>5.7099999999999998E-3</v>
-          </cell>
-          <cell r="H36">
-            <v>3.8790000000000001E-3</v>
-          </cell>
-          <cell r="I36">
-            <v>6.5550000000000001E-3</v>
-          </cell>
-          <cell r="J36">
-            <v>2.0079999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="F37">
-            <v>0.24596499999999999</v>
-          </cell>
-          <cell r="G37">
-            <v>5.574E-3</v>
-          </cell>
-          <cell r="H37">
-            <v>3.9760000000000004E-3</v>
-          </cell>
-          <cell r="I37">
-            <v>7.11E-3</v>
-          </cell>
-          <cell r="J37">
-            <v>2.5920000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="F38">
-            <v>0.24488199999999999</v>
-          </cell>
-          <cell r="G38">
-            <v>5.6379999999999998E-3</v>
-          </cell>
-          <cell r="H38">
-            <v>3.9500000000000004E-3</v>
-          </cell>
-          <cell r="I38">
-            <v>7.0330000000000002E-3</v>
-          </cell>
-          <cell r="J38">
-            <v>2.3010000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="F39">
-            <v>0.25047999999999998</v>
-          </cell>
-          <cell r="G39">
-            <v>5.6109999999999997E-3</v>
-          </cell>
-          <cell r="H39">
-            <v>3.967E-3</v>
-          </cell>
-          <cell r="I39">
-            <v>6.2459999999999998E-3</v>
-          </cell>
-          <cell r="J39">
-            <v>2.3149999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="F40">
-            <v>0.245036</v>
-          </cell>
-          <cell r="G40">
-            <v>5.7200000000000003E-3</v>
-          </cell>
-          <cell r="H40">
-            <v>3.947E-3</v>
-          </cell>
-          <cell r="I40">
-            <v>7.2719999999999998E-3</v>
-          </cell>
-          <cell r="J40">
-            <v>2.5469999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="F41">
-            <v>0.24266799999999999</v>
-          </cell>
-          <cell r="G41">
-            <v>5.6950000000000004E-3</v>
-          </cell>
-          <cell r="H41">
-            <v>3.9319999999999997E-3</v>
-          </cell>
-          <cell r="I41">
-            <v>3.49E-3</v>
-          </cell>
-          <cell r="J41">
-            <v>1.2700000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="F42">
-            <v>0.24495900000000001</v>
-          </cell>
-          <cell r="G42">
-            <v>5.8710000000000004E-3</v>
-          </cell>
-          <cell r="H42">
-            <v>3.8860000000000001E-3</v>
-          </cell>
-          <cell r="I42">
-            <v>5.4949999999999999E-3</v>
-          </cell>
-          <cell r="J42">
-            <v>2.2699999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="F43">
-            <v>0.244756</v>
-          </cell>
-          <cell r="G43">
-            <v>5.646E-3</v>
-          </cell>
-          <cell r="H43">
-            <v>4.1060000000000003E-3</v>
-          </cell>
-          <cell r="I43">
-            <v>7.1720000000000004E-3</v>
-          </cell>
-          <cell r="J43">
-            <v>2.4729999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="F44">
-            <v>0.24423700000000001</v>
-          </cell>
-          <cell r="G44">
-            <v>5.6649999999999999E-3</v>
-          </cell>
-          <cell r="H44">
-            <v>3.8679999999999999E-3</v>
-          </cell>
-          <cell r="I44">
-            <v>5.9030000000000003E-3</v>
-          </cell>
-          <cell r="J44">
-            <v>2.0470000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="F45">
-            <v>0.24456900000000001</v>
-          </cell>
-          <cell r="G45">
-            <v>5.6569999999999997E-3</v>
-          </cell>
-          <cell r="H45">
-            <v>3.9090000000000001E-3</v>
-          </cell>
-          <cell r="I45">
-            <v>6.5380000000000004E-3</v>
-          </cell>
-          <cell r="J45">
-            <v>2.0249999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="F46">
-            <v>0.24504200000000001</v>
-          </cell>
-          <cell r="G46">
-            <v>5.6889999999999996E-3</v>
-          </cell>
-          <cell r="H46">
-            <v>3.9110000000000004E-3</v>
-          </cell>
-          <cell r="I46">
-            <v>4.7239999999999999E-3</v>
-          </cell>
-          <cell r="J46">
-            <v>1.5870000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="F47">
-            <v>0.243783</v>
-          </cell>
-          <cell r="G47">
-            <v>5.744E-3</v>
-          </cell>
-          <cell r="H47">
-            <v>3.869E-3</v>
-          </cell>
-          <cell r="I47">
-            <v>5.7949999999999998E-3</v>
-          </cell>
-          <cell r="J47">
-            <v>1.7730000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="F48">
-            <v>0.24293300000000001</v>
-          </cell>
-          <cell r="G48">
-            <v>5.6759999999999996E-3</v>
-          </cell>
-          <cell r="H48">
-            <v>3.8839999999999999E-3</v>
-          </cell>
-          <cell r="I48">
-            <v>5.0990000000000002E-3</v>
-          </cell>
-          <cell r="J48">
-            <v>1.7849999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="F49">
-            <v>0.24329400000000001</v>
-          </cell>
-          <cell r="G49">
-            <v>5.7429999999999998E-3</v>
-          </cell>
-          <cell r="H49">
-            <v>3.8709999999999999E-3</v>
-          </cell>
-          <cell r="I49">
-            <v>4.5199999999999997E-3</v>
-          </cell>
-          <cell r="J49">
-            <v>1.488E-3</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="F50">
-            <v>0.245175</v>
-          </cell>
-          <cell r="G50">
-            <v>5.7289999999999997E-3</v>
-          </cell>
-          <cell r="H50">
-            <v>3.8739999999999998E-3</v>
-          </cell>
-          <cell r="I50">
-            <v>1.8580000000000001E-3</v>
-          </cell>
-          <cell r="J50">
-            <v>8.2700000000000004E-4</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="F51">
-            <v>0.243757</v>
-          </cell>
-          <cell r="G51">
-            <v>5.672E-3</v>
-          </cell>
-          <cell r="H51">
-            <v>3.862E-3</v>
-          </cell>
-          <cell r="I51">
-            <v>4.8430000000000001E-3</v>
-          </cell>
-          <cell r="J51">
-            <v>1.7149999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="F52">
-            <v>0.24318899999999999</v>
-          </cell>
-          <cell r="G52">
-            <v>5.659E-3</v>
-          </cell>
-          <cell r="H52">
-            <v>3.859E-3</v>
-          </cell>
-          <cell r="I52">
-            <v>1.75E-3</v>
-          </cell>
-          <cell r="J52">
-            <v>6.8499999999999995E-4</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="F53">
-            <v>0.24488399999999999</v>
-          </cell>
-          <cell r="G53">
-            <v>5.6600000000000001E-3</v>
-          </cell>
-          <cell r="H53">
-            <v>3.9750000000000002E-3</v>
-          </cell>
-          <cell r="I53">
-            <v>4.5409999999999999E-3</v>
-          </cell>
-          <cell r="J53">
-            <v>1.5969999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="F54">
-            <v>0.23680000000000001</v>
-          </cell>
-          <cell r="G54">
-            <v>5.5830000000000003E-3</v>
-          </cell>
-          <cell r="H54">
-            <v>3.8909999999999999E-3</v>
-          </cell>
-          <cell r="I54">
-            <v>3.5990000000000002E-3</v>
-          </cell>
-          <cell r="J54">
-            <v>1.3240000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="F55">
-            <v>0.24460399999999999</v>
-          </cell>
-          <cell r="G55">
-            <v>5.6889999999999996E-3</v>
-          </cell>
-          <cell r="H55">
-            <v>3.8999999999999998E-3</v>
-          </cell>
-          <cell r="I55">
-            <v>3.1470000000000001E-3</v>
-          </cell>
-          <cell r="J55">
-            <v>1.1739999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="F56">
-            <v>0.24449399999999999</v>
-          </cell>
-          <cell r="G56">
-            <v>5.7029999999999997E-3</v>
-          </cell>
-          <cell r="H56">
-            <v>3.8600000000000001E-3</v>
-          </cell>
-          <cell r="I56">
-            <v>5.267E-3</v>
-          </cell>
-          <cell r="J56">
-            <v>1.727E-3</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="F57">
-            <v>0.24390600000000001</v>
-          </cell>
-          <cell r="G57">
-            <v>5.679E-3</v>
-          </cell>
-          <cell r="H57">
-            <v>3.9039999999999999E-3</v>
-          </cell>
-          <cell r="I57">
-            <v>5.9930000000000001E-3</v>
-          </cell>
-          <cell r="J57">
-            <v>1.9589999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="F58">
-            <v>0.24354999999999999</v>
-          </cell>
-          <cell r="G58">
-            <v>5.6550000000000003E-3</v>
-          </cell>
-          <cell r="H58">
-            <v>3.9020000000000001E-3</v>
-          </cell>
-          <cell r="I58">
-            <v>3.9309999999999996E-3</v>
-          </cell>
-          <cell r="J58">
-            <v>1.25E-3</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="F59">
-            <v>0.24295600000000001</v>
-          </cell>
-          <cell r="G59">
-            <v>5.6449999999999998E-3</v>
-          </cell>
-          <cell r="H59">
-            <v>3.8449999999999999E-3</v>
-          </cell>
-          <cell r="I59">
-            <v>4.4749999999999998E-3</v>
-          </cell>
-          <cell r="J59">
-            <v>1.5460000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="F60">
-            <v>0.244308</v>
-          </cell>
-          <cell r="G60">
-            <v>5.6259999999999999E-3</v>
-          </cell>
-          <cell r="H60">
-            <v>3.9449999999999997E-3</v>
-          </cell>
-          <cell r="I60">
-            <v>7.7489999999999998E-3</v>
-          </cell>
-          <cell r="J60">
-            <v>2.8779999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="F61">
-            <v>0.242788</v>
-          </cell>
-          <cell r="G61">
-            <v>5.64E-3</v>
-          </cell>
-          <cell r="H61">
-            <v>3.9020000000000001E-3</v>
-          </cell>
-          <cell r="I61">
-            <v>4.5440000000000003E-3</v>
-          </cell>
-          <cell r="J61">
-            <v>1.5939999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="F62">
-            <v>0.23802799999999999</v>
-          </cell>
-          <cell r="G62">
-            <v>5.5269999999999998E-3</v>
-          </cell>
-          <cell r="H62">
-            <v>3.9139999999999999E-3</v>
-          </cell>
-          <cell r="I62">
-            <v>3.0509999999999999E-3</v>
-          </cell>
-          <cell r="J62">
-            <v>1.284E-3</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="F63">
-            <v>0.24587100000000001</v>
-          </cell>
-          <cell r="G63">
-            <v>5.7200000000000003E-3</v>
-          </cell>
-          <cell r="H63">
-            <v>3.826E-3</v>
-          </cell>
-          <cell r="I63">
-            <v>2.5339999999999998E-3</v>
-          </cell>
-          <cell r="J63">
-            <v>1.039E-3</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="F64">
-            <v>0.23535400000000001</v>
-          </cell>
-          <cell r="G64">
-            <v>5.5430000000000002E-3</v>
-          </cell>
-          <cell r="H64">
-            <v>3.8639999999999998E-3</v>
-          </cell>
-          <cell r="I64">
-            <v>1.0300000000000001E-3</v>
-          </cell>
-          <cell r="J64">
-            <v>4.8899999999999996E-4</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="F65">
-            <v>0.24555099999999999</v>
-          </cell>
-          <cell r="G65">
-            <v>5.7270000000000003E-3</v>
-          </cell>
-          <cell r="H65">
-            <v>3.9110000000000004E-3</v>
-          </cell>
-          <cell r="I65">
-            <v>5.2100000000000002E-3</v>
-          </cell>
-          <cell r="J65">
-            <v>1.737E-3</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="F66">
-            <v>0.24385200000000001</v>
-          </cell>
-          <cell r="G66">
-            <v>5.6889999999999996E-3</v>
-          </cell>
-          <cell r="H66">
-            <v>3.8349999999999999E-3</v>
-          </cell>
-          <cell r="I66">
-            <v>1.5299999999999999E-3</v>
-          </cell>
-          <cell r="J66">
-            <v>6.0599999999999998E-4</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="F67">
-            <v>0.24115</v>
-          </cell>
-          <cell r="G67">
-            <v>5.6490000000000004E-3</v>
-          </cell>
-          <cell r="H67">
-            <v>3.9199999999999999E-3</v>
-          </cell>
-          <cell r="I67">
-            <v>4.3340000000000002E-3</v>
-          </cell>
-          <cell r="J67">
-            <v>1.5479999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="F68">
-            <v>0.245115</v>
-          </cell>
-          <cell r="G68">
-            <v>5.7109999999999999E-3</v>
-          </cell>
-          <cell r="H68">
-            <v>3.8809999999999999E-3</v>
-          </cell>
-          <cell r="I68">
-            <v>2.8279999999999998E-3</v>
-          </cell>
-          <cell r="J68">
-            <v>1.0269999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="F69">
-            <v>0.244309</v>
-          </cell>
-          <cell r="G69">
-            <v>5.6829999999999997E-3</v>
-          </cell>
-          <cell r="H69">
-            <v>3.9020000000000001E-3</v>
-          </cell>
-          <cell r="I69">
-            <v>3.8140000000000001E-3</v>
-          </cell>
-          <cell r="J69">
-            <v>1.8550000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="F70">
-            <v>0.24635099999999999</v>
-          </cell>
-          <cell r="G70">
-            <v>5.6800000000000002E-3</v>
-          </cell>
-          <cell r="H70">
-            <v>3.9150000000000001E-3</v>
-          </cell>
-          <cell r="I70">
-            <v>7.6949999999999996E-3</v>
-          </cell>
-          <cell r="J70">
-            <v>2.8219999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="F71">
-            <v>0.24506600000000001</v>
-          </cell>
-          <cell r="G71">
-            <v>5.6519999999999999E-3</v>
-          </cell>
-          <cell r="H71">
-            <v>3.9309999999999996E-3</v>
-          </cell>
-          <cell r="I71">
-            <v>5.0800000000000003E-3</v>
-          </cell>
-          <cell r="J71">
-            <v>1.8010000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="F72">
-            <v>0.24148900000000001</v>
-          </cell>
-          <cell r="G72">
-            <v>5.7099999999999998E-3</v>
-          </cell>
-          <cell r="H72">
-            <v>3.7659999999999998E-3</v>
-          </cell>
-          <cell r="I72">
-            <v>1.495E-3</v>
-          </cell>
-          <cell r="J72">
-            <v>6.6699999999999995E-4</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="F73">
-            <v>0.24538599999999999</v>
-          </cell>
-          <cell r="G73">
-            <v>5.6499999999999996E-3</v>
-          </cell>
-          <cell r="H73">
-            <v>3.8969999999999999E-3</v>
-          </cell>
-          <cell r="I73">
-            <v>6.5329999999999997E-3</v>
-          </cell>
-          <cell r="J73">
-            <v>2.2980000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="F74">
-            <v>0.244447</v>
-          </cell>
-          <cell r="G74">
-            <v>5.6470000000000001E-3</v>
-          </cell>
-          <cell r="H74">
-            <v>3.96E-3</v>
-          </cell>
-          <cell r="I74">
-            <v>3.3430000000000001E-3</v>
-          </cell>
-          <cell r="J74">
-            <v>1.2390000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="F75">
-            <v>0.24873500000000001</v>
-          </cell>
-          <cell r="G75">
-            <v>5.7330000000000002E-3</v>
-          </cell>
-          <cell r="H75">
-            <v>3.8159999999999999E-3</v>
-          </cell>
-          <cell r="I75">
-            <v>8.1980000000000004E-3</v>
-          </cell>
-          <cell r="J75">
-            <v>2.4819999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="F76">
-            <v>0.244619</v>
-          </cell>
-          <cell r="G76">
-            <v>5.6740000000000002E-3</v>
-          </cell>
-          <cell r="H76">
-            <v>3.849E-3</v>
-          </cell>
-          <cell r="I76">
-            <v>6.2700000000000004E-3</v>
-          </cell>
-          <cell r="J76">
-            <v>1.9759999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="F77">
-            <v>0.24418000000000001</v>
-          </cell>
-          <cell r="G77">
-            <v>5.6090000000000003E-3</v>
-          </cell>
-          <cell r="H77">
-            <v>3.9449999999999997E-3</v>
-          </cell>
-          <cell r="I77">
-            <v>4.6899999999999997E-3</v>
-          </cell>
-          <cell r="J77">
-            <v>1.8159999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="F78">
-            <v>0.244031</v>
-          </cell>
-          <cell r="G78">
-            <v>5.5760000000000002E-3</v>
-          </cell>
-          <cell r="H78">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="I78">
-            <v>6.5409999999999999E-3</v>
-          </cell>
-          <cell r="J78">
-            <v>2.3809999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="F79">
-            <v>0.24437800000000001</v>
-          </cell>
-          <cell r="G79">
-            <v>5.6909999999999999E-3</v>
-          </cell>
-          <cell r="H79">
-            <v>3.934E-3</v>
-          </cell>
-          <cell r="I79">
-            <v>5.6519999999999999E-3</v>
-          </cell>
-          <cell r="J79">
-            <v>1.6670000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="F80">
-            <v>0.245757</v>
-          </cell>
-          <cell r="G80">
-            <v>5.6270000000000001E-3</v>
-          </cell>
-          <cell r="H80">
-            <v>3.9639999999999996E-3</v>
-          </cell>
-          <cell r="I80">
-            <v>7.5820000000000002E-3</v>
-          </cell>
-          <cell r="J80">
-            <v>2.496E-3</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="F81">
-            <v>0.24518499999999999</v>
-          </cell>
-          <cell r="G81">
-            <v>5.6730000000000001E-3</v>
-          </cell>
-          <cell r="H81">
-            <v>3.898E-3</v>
-          </cell>
-          <cell r="I81">
-            <v>3.5460000000000001E-3</v>
-          </cell>
-          <cell r="J81">
-            <v>1.1820000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="F82">
-            <v>0.2422</v>
-          </cell>
-          <cell r="G82">
-            <v>5.6550000000000003E-3</v>
-          </cell>
-          <cell r="H82">
-            <v>3.8670000000000002E-3</v>
-          </cell>
-          <cell r="I82">
-            <v>1.5449999999999999E-3</v>
-          </cell>
-          <cell r="J82">
-            <v>6.69E-4</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="F83">
-            <v>0.24435699999999999</v>
-          </cell>
-          <cell r="G83">
-            <v>5.6699999999999997E-3</v>
-          </cell>
-          <cell r="H83">
-            <v>3.9550000000000002E-3</v>
-          </cell>
-          <cell r="I83">
-            <v>3.8649999999999999E-3</v>
-          </cell>
-          <cell r="J83">
-            <v>1.369E-3</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="F84">
-            <v>0.24559700000000001</v>
-          </cell>
-          <cell r="G84">
-            <v>5.7080000000000004E-3</v>
-          </cell>
-          <cell r="H84">
-            <v>3.8790000000000001E-3</v>
-          </cell>
-          <cell r="I84">
-            <v>4.2319999999999997E-3</v>
-          </cell>
-          <cell r="J84">
-            <v>1.537E-3</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="F85">
-            <v>0.23343700000000001</v>
-          </cell>
-          <cell r="G85">
-            <v>5.4660000000000004E-3</v>
-          </cell>
-          <cell r="H85">
-            <v>3.8809999999999999E-3</v>
-          </cell>
-          <cell r="I85">
-            <v>7.8429999999999993E-3</v>
-          </cell>
-          <cell r="J85">
-            <v>2.5000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="F86">
-            <v>0.24479300000000001</v>
-          </cell>
-          <cell r="G86">
-            <v>5.6449999999999998E-3</v>
-          </cell>
-          <cell r="H86">
-            <v>3.8899999999999998E-3</v>
-          </cell>
-          <cell r="I86">
-            <v>4.457E-3</v>
-          </cell>
-          <cell r="J86">
-            <v>1.6949999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="F87">
-            <v>0.24371499999999999</v>
-          </cell>
-          <cell r="G87">
-            <v>5.6379999999999998E-3</v>
-          </cell>
-          <cell r="H87">
-            <v>3.9699999999999996E-3</v>
-          </cell>
-          <cell r="I87">
-            <v>3.3440000000000002E-3</v>
-          </cell>
-          <cell r="J87">
-            <v>1.366E-3</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="F88">
-            <v>0.24610000000000001</v>
-          </cell>
-          <cell r="G88">
-            <v>5.6750000000000004E-3</v>
-          </cell>
-          <cell r="H88">
-            <v>3.9430000000000003E-3</v>
-          </cell>
-          <cell r="I88">
-            <v>6.3709999999999999E-3</v>
-          </cell>
-          <cell r="J88">
-            <v>2.251E-3</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="F89">
-            <v>0.244306</v>
-          </cell>
-          <cell r="G89">
-            <v>5.6769999999999998E-3</v>
-          </cell>
-          <cell r="H89">
-            <v>3.8709999999999999E-3</v>
-          </cell>
-          <cell r="I89">
-            <v>1.3259999999999999E-3</v>
-          </cell>
-          <cell r="J89">
-            <v>6.38E-4</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="F90">
-            <v>0.24279400000000001</v>
-          </cell>
-          <cell r="G90">
-            <v>5.6249999999999998E-3</v>
-          </cell>
-          <cell r="H90">
-            <v>3.9240000000000004E-3</v>
-          </cell>
-          <cell r="I90">
-            <v>6.4530000000000004E-3</v>
-          </cell>
-          <cell r="J90">
-            <v>2.3909999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="F91">
-            <v>0.24035500000000001</v>
-          </cell>
-          <cell r="G91">
-            <v>5.6620000000000004E-3</v>
-          </cell>
-          <cell r="H91">
-            <v>3.836E-3</v>
-          </cell>
-          <cell r="I91">
-            <v>9.4899999999999997E-4</v>
-          </cell>
-          <cell r="J91">
-            <v>4.6700000000000002E-4</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="F92">
-            <v>0.247505</v>
-          </cell>
-          <cell r="G92">
-            <v>5.6909999999999999E-3</v>
-          </cell>
-          <cell r="H92">
-            <v>3.8860000000000001E-3</v>
-          </cell>
-          <cell r="I92">
-            <v>5.2449999999999997E-3</v>
-          </cell>
-          <cell r="J92">
-            <v>1.7390000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="F93">
-            <v>0.24018500000000001</v>
-          </cell>
-          <cell r="G93">
-            <v>5.6319999999999999E-3</v>
-          </cell>
-          <cell r="H93">
-            <v>3.9329999999999999E-3</v>
-          </cell>
-          <cell r="I93">
-            <v>3.1150000000000001E-3</v>
-          </cell>
-          <cell r="J93">
-            <v>1.145E-3</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="F94">
-            <v>0.24396999999999999</v>
-          </cell>
-          <cell r="G94">
-            <v>5.6230000000000004E-3</v>
-          </cell>
-          <cell r="H94">
-            <v>3.9329999999999999E-3</v>
-          </cell>
-          <cell r="I94">
-            <v>3.9919999999999999E-3</v>
-          </cell>
-          <cell r="J94">
-            <v>1.2849999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="F95">
-            <v>0.244781</v>
-          </cell>
-          <cell r="G95">
-            <v>5.6680000000000003E-3</v>
-          </cell>
-          <cell r="H95">
-            <v>3.908E-3</v>
-          </cell>
-          <cell r="I95">
-            <v>8.2059999999999998E-3</v>
-          </cell>
-          <cell r="J95">
-            <v>2.647E-3</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="F96">
-            <v>0.244726</v>
-          </cell>
-          <cell r="G96">
-            <v>5.6649999999999999E-3</v>
-          </cell>
-          <cell r="H96">
-            <v>3.8760000000000001E-3</v>
-          </cell>
-          <cell r="I96">
-            <v>4.0090000000000004E-3</v>
-          </cell>
-          <cell r="J96">
-            <v>1.3929999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="F97">
-            <v>0.24531600000000001</v>
-          </cell>
-          <cell r="G97">
-            <v>5.7390000000000002E-3</v>
-          </cell>
-          <cell r="H97">
-            <v>3.8839999999999999E-3</v>
-          </cell>
-          <cell r="I97">
-            <v>4.9459999999999999E-3</v>
-          </cell>
-          <cell r="J97">
-            <v>1.627E-3</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="F98">
-            <v>0.24462300000000001</v>
-          </cell>
-          <cell r="G98">
-            <v>5.679E-3</v>
-          </cell>
-          <cell r="H98">
-            <v>3.8800000000000002E-3</v>
-          </cell>
-          <cell r="I98">
-            <v>5.9839999999999997E-3</v>
-          </cell>
-          <cell r="J98">
-            <v>2.2929999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="F99">
-            <v>0.244667</v>
-          </cell>
-          <cell r="G99">
-            <v>5.6870000000000002E-3</v>
-          </cell>
-          <cell r="H99">
-            <v>3.9110000000000004E-3</v>
-          </cell>
-          <cell r="I99">
-            <v>7.0099999999999997E-3</v>
-          </cell>
-          <cell r="J99">
-            <v>2.4620000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="F100">
-            <v>0.24302099999999999</v>
-          </cell>
-          <cell r="G100">
-            <v>5.7029999999999997E-3</v>
-          </cell>
-          <cell r="H100">
-            <v>3.8779999999999999E-3</v>
-          </cell>
-          <cell r="I100">
-            <v>1.6609999999999999E-3</v>
-          </cell>
-          <cell r="J100">
-            <v>6.02E-4</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="F101">
-            <v>0.24529999999999999</v>
-          </cell>
-          <cell r="G101">
-            <v>5.6280000000000002E-3</v>
-          </cell>
-          <cell r="H101">
-            <v>3.9060000000000002E-3</v>
-          </cell>
-          <cell r="I101">
-            <v>6.3610000000000003E-3</v>
-          </cell>
-          <cell r="J101">
-            <v>2.3119999999999998E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7327,15 +5611,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="11" max="11" width="12.1640625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7366,8 +5653,11 @@
       <c r="J1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>4159</v>
       </c>
@@ -7398,8 +5688,12 @@
       <c r="J2">
         <v>1.3868E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="1" t="str">
+        <f>IF(AND(A2=B2, B2=C2, C2=D2, D2=E2), "O","X")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>4305</v>
       </c>
@@ -7430,8 +5724,12 @@
       <c r="J3">
         <v>2.3401999999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="1" t="str">
+        <f t="shared" ref="K3:K66" si="0">IF(AND(A3=B3, B3=C3, C3=D3, D3=E3), "O","X")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>4329</v>
       </c>
@@ -7462,8 +5760,12 @@
       <c r="J4">
         <v>2.2166999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4101</v>
       </c>
@@ -7494,8 +5796,12 @@
       <c r="J5">
         <v>1.0829E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4226</v>
       </c>
@@ -7526,8 +5832,12 @@
       <c r="J6">
         <v>1.7311E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>4270</v>
       </c>
@@ -7558,8 +5868,12 @@
       <c r="J7">
         <v>2.3071000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>4359</v>
       </c>
@@ -7590,8 +5904,12 @@
       <c r="J8">
         <v>3.2841000000000002E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>4463</v>
       </c>
@@ -7622,8 +5940,12 @@
       <c r="J9">
         <v>3.0629E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>4249</v>
       </c>
@@ -7654,8 +5976,12 @@
       <c r="J10">
         <v>2.1850000000000001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>4290</v>
       </c>
@@ -7686,8 +6012,12 @@
       <c r="J11">
         <v>2.4279999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>4227</v>
       </c>
@@ -7718,8 +6048,12 @@
       <c r="J12">
         <v>1.9182999999999999E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>4383</v>
       </c>
@@ -7750,8 +6084,12 @@
       <c r="J13">
         <v>3.5161999999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>4252</v>
       </c>
@@ -7782,8 +6120,12 @@
       <c r="J14">
         <v>2.7925999999999999E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>4315</v>
       </c>
@@ -7814,8 +6156,12 @@
       <c r="J15">
         <v>2.2176000000000001E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>4090</v>
       </c>
@@ -7846,8 +6192,12 @@
       <c r="J16">
         <v>1.2200000000000001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>4380</v>
       </c>
@@ -7878,8 +6228,12 @@
       <c r="J17">
         <v>3.2476999999999999E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>4198</v>
       </c>
@@ -7910,8 +6264,12 @@
       <c r="J18">
         <v>1.9365E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>4271</v>
       </c>
@@ -7942,8 +6300,12 @@
       <c r="J19">
         <v>1.9012999999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>4253</v>
       </c>
@@ -7974,8 +6336,12 @@
       <c r="J20">
         <v>2.4121E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>4142</v>
       </c>
@@ -8006,8 +6372,12 @@
       <c r="J21">
         <v>1.6358000000000001E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>4135</v>
       </c>
@@ -8038,8 +6408,12 @@
       <c r="J22">
         <v>9.2180000000000005E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>4197</v>
       </c>
@@ -8070,8 +6444,12 @@
       <c r="J23">
         <v>2.0326E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>4301</v>
       </c>
@@ -8102,8 +6480,12 @@
       <c r="J24">
         <v>3.0658000000000001E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>4191</v>
       </c>
@@ -8134,8 +6516,12 @@
       <c r="J25">
         <v>2.2426000000000001E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>4262</v>
       </c>
@@ -8166,8 +6552,12 @@
       <c r="J26">
         <v>2.5106E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>4222</v>
       </c>
@@ -8198,8 +6588,12 @@
       <c r="J27">
         <v>2.2419999999999999E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>4203</v>
       </c>
@@ -8230,8 +6624,12 @@
       <c r="J28">
         <v>2.1645000000000001E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>4230</v>
       </c>
@@ -8262,8 +6660,12 @@
       <c r="J29">
         <v>2.5669000000000001E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>4271</v>
       </c>
@@ -8294,8 +6696,12 @@
       <c r="J30">
         <v>1.7687000000000001E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>4420</v>
       </c>
@@ -8326,8 +6732,12 @@
       <c r="J31">
         <v>3.0828999999999999E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>4276</v>
       </c>
@@ -8358,8 +6768,12 @@
       <c r="J32">
         <v>2.1343999999999998E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>4207</v>
       </c>
@@ -8390,8 +6804,12 @@
       <c r="J33">
         <v>2.4455000000000001E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>4094</v>
       </c>
@@ -8422,8 +6840,12 @@
       <c r="J34">
         <v>1.7694999999999999E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>4231</v>
       </c>
@@ -8454,8 +6876,12 @@
       <c r="J35">
         <v>3.0577E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>4234</v>
       </c>
@@ -8486,8 +6912,12 @@
       <c r="J36">
         <v>1.7784999999999999E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>4277</v>
       </c>
@@ -8518,8 +6948,12 @@
       <c r="J37">
         <v>3.1234000000000001E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>4262</v>
       </c>
@@ -8550,8 +6984,12 @@
       <c r="J38">
         <v>2.8486999999999998E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>4308</v>
       </c>
@@ -8582,8 +7020,12 @@
       <c r="J39">
         <v>3.1773000000000003E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>4358</v>
       </c>
@@ -8614,8 +7056,12 @@
       <c r="J40">
         <v>2.9968000000000002E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>4435</v>
       </c>
@@ -8646,8 +7092,12 @@
       <c r="J41">
         <v>2.8254000000000001E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>4237</v>
       </c>
@@ -8678,8 +7128,12 @@
       <c r="J42">
         <v>1.9826E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>4174</v>
       </c>
@@ -8710,8 +7164,12 @@
       <c r="J43">
         <v>1.7951000000000002E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>4193</v>
       </c>
@@ -8742,8 +7200,12 @@
       <c r="J44">
         <v>1.8622E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>4284</v>
       </c>
@@ -8774,8 +7236,12 @@
       <c r="J45">
         <v>3.0367000000000002E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>4118</v>
       </c>
@@ -8806,8 +7272,12 @@
       <c r="J46">
         <v>1.5466000000000001E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>4173</v>
       </c>
@@ -8838,8 +7308,12 @@
       <c r="J47">
         <v>2.5048000000000001E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>4169</v>
       </c>
@@ -8870,8 +7344,12 @@
       <c r="J48">
         <v>1.9876999999999999E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>4337</v>
       </c>
@@ -8902,8 +7380,12 @@
       <c r="J49">
         <v>2.9255E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>4268</v>
       </c>
@@ -8934,8 +7416,12 @@
       <c r="J50">
         <v>2.0423E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>4149</v>
       </c>
@@ -8966,8 +7452,12 @@
       <c r="J51">
         <v>1.5764E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>4268</v>
       </c>
@@ -8998,8 +7488,12 @@
       <c r="J52">
         <v>2.9228000000000001E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>4268</v>
       </c>
@@ -9030,8 +7524,12 @@
       <c r="J53">
         <v>2.7047000000000002E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>4248</v>
       </c>
@@ -9062,8 +7560,12 @@
       <c r="J54">
         <v>2.3602000000000001E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>4369</v>
       </c>
@@ -9094,8 +7596,12 @@
       <c r="J55">
         <v>3.5976000000000001E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>4117</v>
       </c>
@@ -9126,8 +7632,12 @@
       <c r="J56">
         <v>1.2182E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>4076</v>
       </c>
@@ -9158,8 +7668,12 @@
       <c r="J57">
         <v>1.3032999999999999E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>4176</v>
       </c>
@@ -9190,8 +7704,12 @@
       <c r="J58">
         <v>1.5051E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>4387</v>
       </c>
@@ -9222,8 +7740,12 @@
       <c r="J59">
         <v>3.0463E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>4199</v>
       </c>
@@ -9254,8 +7776,12 @@
       <c r="J60">
         <v>2.8204E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>4152</v>
       </c>
@@ -9286,8 +7812,12 @@
       <c r="J61">
         <v>1.7859E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>4506</v>
       </c>
@@ -9318,8 +7848,12 @@
       <c r="J62">
         <v>3.0283999999999998E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>4325</v>
       </c>
@@ -9350,8 +7884,12 @@
       <c r="J63">
         <v>3.0225999999999999E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>4258</v>
       </c>
@@ -9382,8 +7920,12 @@
       <c r="J64">
         <v>1.8973E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>4371</v>
       </c>
@@ -9414,8 +7956,12 @@
       <c r="J65">
         <v>2.4948999999999999E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>4469</v>
       </c>
@@ -9446,8 +7992,12 @@
       <c r="J66">
         <v>3.4480999999999998E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>4262</v>
       </c>
@@ -9478,8 +8028,12 @@
       <c r="J67">
         <v>2.1767000000000002E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67" s="1" t="str">
+        <f t="shared" ref="K67:K101" si="1">IF(AND(A67=B67, B67=C67, C67=D67, D67=E67), "O","X")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>4289</v>
       </c>
@@ -9510,8 +8064,12 @@
       <c r="J68">
         <v>2.9777999999999999E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>4274</v>
       </c>
@@ -9542,8 +8100,12 @@
       <c r="J69">
         <v>2.3428999999999998E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>4243</v>
       </c>
@@ -9574,8 +8136,12 @@
       <c r="J70">
         <v>2.027E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>4275</v>
       </c>
@@ -9606,8 +8172,12 @@
       <c r="J71">
         <v>2.223E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>4103</v>
       </c>
@@ -9638,8 +8208,12 @@
       <c r="J72">
         <v>1.2239999999999999E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>4177</v>
       </c>
@@ -9670,8 +8244,12 @@
       <c r="J73">
         <v>2.2120000000000001E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>4214</v>
       </c>
@@ -9702,8 +8280,12 @@
       <c r="J74">
         <v>2.1316999999999999E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>4239</v>
       </c>
@@ -9734,8 +8316,12 @@
       <c r="J75">
         <v>1.9689999999999999E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>4168</v>
       </c>
@@ -9766,8 +8352,12 @@
       <c r="J76">
         <v>1.6098000000000001E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>4245</v>
       </c>
@@ -9798,8 +8388,12 @@
       <c r="J77">
         <v>2.3046000000000001E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>4208</v>
       </c>
@@ -9830,8 +8424,12 @@
       <c r="J78">
         <v>1.9556E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>4238</v>
       </c>
@@ -9862,8 +8460,12 @@
       <c r="J79">
         <v>1.5048000000000001E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>4283</v>
       </c>
@@ -9894,8 +8496,12 @@
       <c r="J80">
         <v>2.4635000000000001E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>4373</v>
       </c>
@@ -9926,8 +8532,12 @@
       <c r="J81">
         <v>3.4966999999999998E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>4255</v>
       </c>
@@ -9958,8 +8568,12 @@
       <c r="J82">
         <v>2.2238000000000001E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>4215</v>
       </c>
@@ -9990,8 +8604,12 @@
       <c r="J83">
         <v>2.4454E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>4083</v>
       </c>
@@ -10022,8 +8640,12 @@
       <c r="J84">
         <v>1.2252000000000001E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>4377</v>
       </c>
@@ -10054,8 +8676,12 @@
       <c r="J85">
         <v>3.4432999999999998E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>4151</v>
       </c>
@@ -10086,8 +8712,12 @@
       <c r="J86">
         <v>1.6875999999999999E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>4302</v>
       </c>
@@ -10118,8 +8748,12 @@
       <c r="J87">
         <v>2.7137999999999999E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>4332</v>
       </c>
@@ -10150,8 +8784,12 @@
       <c r="J88">
         <v>3.2046999999999999E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>4098</v>
       </c>
@@ -10182,8 +8820,12 @@
       <c r="J89">
         <v>1.2959E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>4174</v>
       </c>
@@ -10214,8 +8856,12 @@
       <c r="J90">
         <v>2.4108999999999998E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>4317</v>
       </c>
@@ -10246,8 +8892,12 @@
       <c r="J91">
         <v>2.0549000000000001E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>4074</v>
       </c>
@@ -10278,8 +8928,12 @@
       <c r="J92">
         <v>1.5640000000000001E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K92" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>4249</v>
       </c>
@@ -10310,8 +8964,12 @@
       <c r="J93">
         <v>2.4243000000000001E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K93" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>4259</v>
       </c>
@@ -10342,8 +9000,12 @@
       <c r="J94">
         <v>2.3712E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>4338</v>
       </c>
@@ -10374,8 +9036,12 @@
       <c r="J95">
         <v>3.5948000000000001E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K95" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>4204</v>
       </c>
@@ -10406,8 +9072,12 @@
       <c r="J96">
         <v>2.5517999999999999E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>4462</v>
       </c>
@@ -10438,8 +9108,12 @@
       <c r="J97">
         <v>3.2222000000000001E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K97" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>4131</v>
       </c>
@@ -10470,8 +9144,12 @@
       <c r="J98">
         <v>1.3625E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>4205</v>
       </c>
@@ -10502,8 +9180,12 @@
       <c r="J99">
         <v>2.6518E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K99" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>4320</v>
       </c>
@@ -10534,8 +9216,12 @@
       <c r="J100">
         <v>2.5668E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>4243</v>
       </c>
@@ -10565,6 +9251,10 @@
       </c>
       <c r="J101">
         <v>2.3057999999999999E-2</v>
+      </c>
+      <c r="K101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
       </c>
     </row>
   </sheetData>
